--- a/InfomatSelfChecking/ExcelTemplate/PrintTemplate.xlsx
+++ b/InfomatSelfChecking/ExcelTemplate/PrintTemplate.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
@@ -19,12 +19,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>(495) 782-8882</t>
-  </si>
-  <si>
-    <t>ул. Последний переулок, д.28</t>
-  </si>
-  <si>
     <r>
       <t>Клиника "</t>
     </r>
@@ -44,32 +38,38 @@
     <t>----------------------------------------------------</t>
   </si>
   <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>Алехина С.П.</t>
-  </si>
-  <si>
-    <t>Аллергология-иммунология</t>
-  </si>
-  <si>
-    <t>Тестович,</t>
-  </si>
-  <si>
-    <t>14.08.2016, 22:32</t>
-  </si>
-  <si>
-    <t>22:30, кабинет №101</t>
-  </si>
-  <si>
     <t>Ваши записи на ближайшее время:</t>
+  </si>
+  <si>
+    <t>_clinic_address_</t>
+  </si>
+  <si>
+    <t>_clinic_phone_number_</t>
+  </si>
+  <si>
+    <t>_date_, _time_</t>
+  </si>
+  <si>
+    <t>_time_, кабинет _rnum_</t>
+  </si>
+  <si>
+    <t>_doc_name_</t>
+  </si>
+  <si>
+    <t>_department_</t>
+  </si>
+  <si>
+    <t>_patient_name_</t>
+  </si>
+  <si>
+    <t>_patient_family_,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +107,14 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="Franklin Gothic Medium"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -134,29 +141,31 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -556,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:A12"/>
@@ -565,67 +574,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
+      <c r="A4" s="5" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="11" spans="1:1" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>6</v>
+      <c r="A11" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
+      <c r="A12" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
